--- a/bank statement generator/bank_statements/statement_43.xlsx
+++ b/bank statement generator/bank_statements/statement_43.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 01.03.2024</t>
+          <t>KONTOSTAND AM 26.12.2023</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,90 +759,74 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>04.03.</t>
+          <t>27.12.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>05.03.</t>
+          <t>28.12.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>KARTENZ./27.12 LIDL RO</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>25,97-</t>
+          <t>16,39-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>07.03.</t>
+          <t>31.12.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>08.03.</t>
+          <t>01.01.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 43440768</t>
+          <t>MCDONALDS Brilon</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>84,91-</t>
+          <t>18,80-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>09.03.</t>
+          <t>02.01.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>10.03.</t>
+          <t>03.01.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-50888282</t>
+          <t>BEITRAG Allianz SE K-99371477</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>53,67-</t>
+          <t>56,99-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>12.03.</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>13.03.</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>AMAZON.DE MKTPLC EU QFHVOP</t>
-        </is>
-      </c>
-      <c r="E9" s="17" t="inlineStr">
-        <is>
-          <t>201,28-</t>
-        </is>
-      </c>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="13" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="8" t="n"/>
@@ -861,12 +845,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 15.03.2024</t>
+          <t>KONTOSTAND AM 06.01.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>365,83-</t>
+          <t>92,18-</t>
         </is>
       </c>
     </row>
@@ -874,7 +858,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 25.03.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 13.01.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
